--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/86.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/0_fold/86.xlsx
@@ -479,13 +479,13 @@
         <v>-9.866705387038971</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.22353204372954</v>
+        <v>-9.467830827862413</v>
       </c>
       <c r="F2" t="n">
-        <v>3.159911673589203</v>
+        <v>2.393828742577965</v>
       </c>
       <c r="G2" t="n">
-        <v>-15.67894248775597</v>
+        <v>-14.79388557463836</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-9.496686843216223</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.805421641029756</v>
+        <v>-10.04701680436523</v>
       </c>
       <c r="F3" t="n">
-        <v>3.253145034541271</v>
+        <v>2.485106500783267</v>
       </c>
       <c r="G3" t="n">
-        <v>-15.24542447085289</v>
+        <v>-14.46339848844864</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-9.048293804468035</v>
       </c>
       <c r="E4" t="n">
-        <v>-9.955939495441468</v>
+        <v>-10.15898972863818</v>
       </c>
       <c r="F4" t="n">
-        <v>3.207515933452354</v>
+        <v>2.393691850385692</v>
       </c>
       <c r="G4" t="n">
-        <v>-14.6968681223713</v>
+        <v>-13.88642723205654</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-8.555694784118973</v>
       </c>
       <c r="E5" t="n">
-        <v>-10.57019431820066</v>
+        <v>-10.75540456534</v>
       </c>
       <c r="F5" t="n">
-        <v>3.446177692667674</v>
+        <v>2.667104670411043</v>
       </c>
       <c r="G5" t="n">
-        <v>-14.0962682957914</v>
+        <v>-13.34517017082725</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-8.014254796977784</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.21950332019564</v>
+        <v>-11.32054931412103</v>
       </c>
       <c r="F6" t="n">
-        <v>3.469116912887239</v>
+        <v>2.67813915890967</v>
       </c>
       <c r="G6" t="n">
-        <v>-13.65897596558705</v>
+        <v>-13.05339424100977</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.42739451995458</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.07645822184222</v>
+        <v>-12.27679016722093</v>
       </c>
       <c r="F7" t="n">
-        <v>3.547341022757878</v>
+        <v>2.753068078152009</v>
       </c>
       <c r="G7" t="n">
-        <v>-13.22057383082392</v>
+        <v>-12.60919374410248</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-6.806206702533159</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.84131401212986</v>
+        <v>-13.01908319081776</v>
       </c>
       <c r="F8" t="n">
-        <v>3.706971985969518</v>
+        <v>2.963730495040507</v>
       </c>
       <c r="G8" t="n">
-        <v>-12.72270670553851</v>
+        <v>-12.19341793311943</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-6.161904286201151</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.48037076672492</v>
+        <v>-13.7227921722209</v>
       </c>
       <c r="F9" t="n">
-        <v>3.875085376095255</v>
+        <v>3.108987778063417</v>
       </c>
       <c r="G9" t="n">
-        <v>-12.59815436659698</v>
+        <v>-12.10203750576992</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-5.49525355427203</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.39997829137102</v>
+        <v>-14.68757412031729</v>
       </c>
       <c r="F10" t="n">
-        <v>4.204496880774251</v>
+        <v>3.4237273731348</v>
       </c>
       <c r="G10" t="n">
-        <v>-12.08979543257517</v>
+        <v>-11.66760035557586</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-4.823987690248989</v>
       </c>
       <c r="E11" t="n">
-        <v>-15.07681729103359</v>
+        <v>-15.40338828272291</v>
       </c>
       <c r="F11" t="n">
-        <v>4.225690725542327</v>
+        <v>3.482991914375543</v>
       </c>
       <c r="G11" t="n">
-        <v>-11.42914393464895</v>
+        <v>-11.05544291676257</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-4.156215050301175</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.16736894078137</v>
+        <v>-16.52240373044987</v>
       </c>
       <c r="F12" t="n">
-        <v>4.500536024579684</v>
+        <v>3.768949926021399</v>
       </c>
       <c r="G12" t="n">
-        <v>-11.02757068861429</v>
+        <v>-10.58538935154303</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-3.497673088909226</v>
       </c>
       <c r="E13" t="n">
-        <v>-16.94300010220369</v>
+        <v>-17.39192826875129</v>
       </c>
       <c r="F13" t="n">
-        <v>4.775586661905453</v>
+        <v>4.103734449247134</v>
       </c>
       <c r="G13" t="n">
-        <v>-10.47030701890272</v>
+        <v>-10.03237911780568</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-2.870416341473222</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.30311692357257</v>
+        <v>-18.79049224012158</v>
       </c>
       <c r="F14" t="n">
-        <v>4.833648507456934</v>
+        <v>4.168455122151354</v>
       </c>
       <c r="G14" t="n">
-        <v>-9.870812107874745</v>
+        <v>-9.531720369599258</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-2.286652986291636</v>
       </c>
       <c r="E15" t="n">
-        <v>-18.94609955068175</v>
+        <v>-19.53694091955529</v>
       </c>
       <c r="F15" t="n">
-        <v>4.953267838469743</v>
+        <v>4.345217165424664</v>
       </c>
       <c r="G15" t="n">
-        <v>-9.22202622961453</v>
+        <v>-8.911197840036678</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-1.757772149014142</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.11146767251394</v>
+        <v>-20.74701412017854</v>
       </c>
       <c r="F16" t="n">
-        <v>4.837955722506686</v>
+        <v>4.288837138235401</v>
       </c>
       <c r="G16" t="n">
-        <v>-9.086014058576955</v>
+        <v>-8.674188565142375</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-1.300314229298771</v>
       </c>
       <c r="E17" t="n">
-        <v>-21.29374198009191</v>
+        <v>-22.05808442465852</v>
       </c>
       <c r="F17" t="n">
-        <v>5.232161235192906</v>
+        <v>4.680969712010048</v>
       </c>
       <c r="G17" t="n">
-        <v>-8.601185914605601</v>
+        <v>-8.340518735482297</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-0.9150597573869882</v>
       </c>
       <c r="E18" t="n">
-        <v>-22.17372899308853</v>
+        <v>-22.96889662595105</v>
       </c>
       <c r="F18" t="n">
-        <v>5.35248458319455</v>
+        <v>4.784509099437573</v>
       </c>
       <c r="G18" t="n">
-        <v>-8.076747036998501</v>
+        <v>-7.885669981618865</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.5984583503217888</v>
       </c>
       <c r="E19" t="n">
-        <v>-23.08767504778275</v>
+        <v>-24.00328825381857</v>
       </c>
       <c r="F19" t="n">
-        <v>5.425184115305575</v>
+        <v>4.924647592270823</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.473971602362824</v>
+        <v>-7.302783026917798</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.3438748125903818</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.86171728197332</v>
+        <v>-24.91250663887248</v>
       </c>
       <c r="F20" t="n">
-        <v>5.577716240546454</v>
+        <v>5.142330623020211</v>
       </c>
       <c r="G20" t="n">
-        <v>-6.854969553935856</v>
+        <v>-6.850574336762499</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.1339272478738658</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.68714297833517</v>
+        <v>-25.74620453485315</v>
       </c>
       <c r="F21" t="n">
-        <v>5.633714925200098</v>
+        <v>5.260497918993545</v>
       </c>
       <c r="G21" t="n">
-        <v>-6.350282264071092</v>
+        <v>-6.316010325934019</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.04672101718649971</v>
       </c>
       <c r="E22" t="n">
-        <v>-25.18273671542747</v>
+        <v>-26.33441561803229</v>
       </c>
       <c r="F22" t="n">
-        <v>5.63296690714946</v>
+        <v>5.26302553554374</v>
       </c>
       <c r="G22" t="n">
-        <v>-6.044083763996209</v>
+        <v>-6.0786783765865</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.2121133884964212</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.72569515104644</v>
+        <v>-26.9463334955091</v>
       </c>
       <c r="F23" t="n">
-        <v>5.60624848462177</v>
+        <v>5.265435815929129</v>
       </c>
       <c r="G23" t="n">
-        <v>-5.560648986981925</v>
+        <v>-5.661362528440374</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.3754400146099275</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.18299818635707</v>
+        <v>-27.35893389653209</v>
       </c>
       <c r="F24" t="n">
-        <v>5.783900327144859</v>
+        <v>5.411348225872206</v>
       </c>
       <c r="G24" t="n">
-        <v>-5.318784928268776</v>
+        <v>-5.416105498961585</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.540882108868704</v>
       </c>
       <c r="E25" t="n">
-        <v>-26.34930753294892</v>
+        <v>-27.58461289801232</v>
       </c>
       <c r="F25" t="n">
-        <v>5.533563619531345</v>
+        <v>5.142154618773001</v>
       </c>
       <c r="G25" t="n">
-        <v>-4.962009652155658</v>
+        <v>-4.979272735402734</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.7071727374671286</v>
       </c>
       <c r="E26" t="n">
-        <v>-26.42571048776163</v>
+        <v>-27.67300125315927</v>
       </c>
       <c r="F26" t="n">
-        <v>5.639493731316792</v>
+        <v>5.377262069996075</v>
       </c>
       <c r="G26" t="n">
-        <v>-4.633121271211422</v>
+        <v>-4.677004996848851</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.8686847677526536</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.55652564449967</v>
+        <v>-27.89737000079916</v>
       </c>
       <c r="F27" t="n">
-        <v>5.595033102869067</v>
+        <v>5.293469381304019</v>
       </c>
       <c r="G27" t="n">
-        <v>-4.497187324283719</v>
+        <v>-4.515589546130787</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.014106440094951</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.48697707731437</v>
+        <v>-27.71230642386583</v>
       </c>
       <c r="F28" t="n">
-        <v>5.535445887175108</v>
+        <v>5.263005979516272</v>
       </c>
       <c r="G28" t="n">
-        <v>-4.383112127057992</v>
+        <v>-4.299950120251769</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.130652612850807</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.43606784880919</v>
+        <v>-27.75731217657922</v>
       </c>
       <c r="F29" t="n">
-        <v>5.410424203574359</v>
+        <v>5.224886392974937</v>
       </c>
       <c r="G29" t="n">
-        <v>-4.012833413978455</v>
+        <v>-3.885469896088454</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.206087851966182</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.2670451034062</v>
+        <v>-27.49579431026107</v>
       </c>
       <c r="F30" t="n">
-        <v>5.428049073329587</v>
+        <v>5.205956158386241</v>
       </c>
       <c r="G30" t="n">
-        <v>-4.35286384157239</v>
+        <v>-4.082990662518685</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.228827023253821</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.1324116323051</v>
+        <v>-27.399915996594</v>
       </c>
       <c r="F31" t="n">
-        <v>5.57125786247526</v>
+        <v>5.30121845718808</v>
       </c>
       <c r="G31" t="n">
-        <v>-4.568889498993894</v>
+        <v>-4.27614554581676</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.188085866873464</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.71358019203023</v>
+        <v>-26.943783878428</v>
       </c>
       <c r="F32" t="n">
-        <v>5.586839127360117</v>
+        <v>5.328386668347526</v>
       </c>
       <c r="G32" t="n">
-        <v>-4.593412757438339</v>
+        <v>-4.18733673607925</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.07732217112589</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.45533307130605</v>
+        <v>-26.58885664691058</v>
       </c>
       <c r="F33" t="n">
-        <v>5.47471464387429</v>
+        <v>5.108288468205882</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.507806247198658</v>
+        <v>-4.061337251105118</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8932063966746181</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.1353133488184</v>
+        <v>-26.25037847899689</v>
       </c>
       <c r="F34" t="n">
-        <v>5.651442464099532</v>
+        <v>5.22855803713199</v>
       </c>
       <c r="G34" t="n">
-        <v>-4.496859760823636</v>
+        <v>-4.010203128284055</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.6348059092751127</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.99377660002121</v>
+        <v>-26.03406437017024</v>
       </c>
       <c r="F35" t="n">
-        <v>5.789332013774001</v>
+        <v>5.365640900673418</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.774941582406891</v>
+        <v>-4.297510505825179</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.3085397351077788</v>
       </c>
       <c r="E36" t="n">
-        <v>-24.34663342806828</v>
+        <v>-25.37811120784313</v>
       </c>
       <c r="F36" t="n">
-        <v>5.905837047412584</v>
+        <v>5.423732080266102</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.93942244043051</v>
+        <v>-4.442445114394872</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.07596260413890121</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.9033911765069</v>
+        <v>-24.8353825555469</v>
       </c>
       <c r="F37" t="n">
-        <v>5.892607394830712</v>
+        <v>5.436062155584461</v>
       </c>
       <c r="G37" t="n">
-        <v>-5.103585513007781</v>
+        <v>-4.579430197798962</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.5072753179153593</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.38741028077957</v>
+        <v>-24.27596772281389</v>
       </c>
       <c r="F38" t="n">
-        <v>5.766334125472033</v>
+        <v>5.263846888697381</v>
       </c>
       <c r="G38" t="n">
-        <v>-5.096579566167492</v>
+        <v>-4.492449876629679</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.967295391123983</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.77446082285384</v>
+        <v>-23.70066361776341</v>
       </c>
       <c r="F39" t="n">
-        <v>5.730272810821669</v>
+        <v>5.23112476573712</v>
       </c>
       <c r="G39" t="n">
-        <v>-5.273331831427067</v>
+        <v>-4.708206638673502</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-1.438481983607314</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.28288096039928</v>
+        <v>-23.11680375069582</v>
       </c>
       <c r="F40" t="n">
-        <v>5.729211896331548</v>
+        <v>5.303887854937416</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.132386652460776</v>
+        <v>-4.491027175631406</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-1.904299960635821</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.69551078640125</v>
+        <v>-22.52053558420001</v>
       </c>
       <c r="F41" t="n">
-        <v>5.882956495275423</v>
+        <v>5.419385753161414</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.450700111551875</v>
+        <v>-4.807228583755998</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-2.344900030523043</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.22851285047353</v>
+        <v>-21.94941158002074</v>
       </c>
       <c r="F42" t="n">
-        <v>5.795658388659789</v>
+        <v>5.355486433410835</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.40289540240718</v>
+        <v>-4.763462194283375</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.747737714467962</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.7763823844281</v>
+        <v>-21.39157589650574</v>
       </c>
       <c r="F43" t="n">
-        <v>5.757504579070384</v>
+        <v>5.252734176088884</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.645649260370108</v>
+        <v>-5.002265734697835</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-3.104597769163814</v>
       </c>
       <c r="E44" t="n">
-        <v>-19.96888467624723</v>
+        <v>-20.58056788139443</v>
       </c>
       <c r="F44" t="n">
-        <v>5.824826203627803</v>
+        <v>5.302973610653302</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.765850383200079</v>
+        <v>-5.130103486253927</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-3.406816172586224</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.33612496249676</v>
+        <v>-19.92987529045611</v>
       </c>
       <c r="F45" t="n">
-        <v>5.855534055758897</v>
+        <v>5.323306990212801</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.855094314548745</v>
+        <v>-5.242570200220439</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-3.657004257393644</v>
       </c>
       <c r="E46" t="n">
-        <v>-18.85627382751592</v>
+        <v>-19.36032554648799</v>
       </c>
       <c r="F46" t="n">
-        <v>5.860315504474739</v>
+        <v>5.386614740132483</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.901109647180149</v>
+        <v>-5.158953515775592</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-3.860466161421288</v>
       </c>
       <c r="E47" t="n">
-        <v>-18.25549310768195</v>
+        <v>-18.73547135684132</v>
       </c>
       <c r="F47" t="n">
-        <v>5.953964431010495</v>
+        <v>5.446925528842746</v>
       </c>
       <c r="G47" t="n">
-        <v>-6.174698471452709</v>
+        <v>-5.40221583045268</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-4.021528994655966</v>
       </c>
       <c r="E48" t="n">
-        <v>-17.51100492000187</v>
+        <v>-17.96636213057947</v>
       </c>
       <c r="F48" t="n">
-        <v>5.942646380113587</v>
+        <v>5.440271590496875</v>
       </c>
       <c r="G48" t="n">
-        <v>-6.209444643255874</v>
+        <v>-5.449912981446301</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-4.154473162659294</v>
       </c>
       <c r="E49" t="n">
-        <v>-17.03284049239013</v>
+        <v>-17.36562541180729</v>
       </c>
       <c r="F49" t="n">
-        <v>5.845286697365843</v>
+        <v>5.244457087463197</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.30413981726115</v>
+        <v>-5.544642378499645</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-4.270871447187433</v>
       </c>
       <c r="E50" t="n">
-        <v>-16.33016309143591</v>
+        <v>-16.76347577005058</v>
       </c>
       <c r="F50" t="n">
-        <v>5.834198429791679</v>
+        <v>5.321331831438568</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.691945619958577</v>
+        <v>-5.888838239944192</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-4.379542646847193</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.84710965695724</v>
+        <v>-16.27122611365525</v>
       </c>
       <c r="F51" t="n">
-        <v>5.882477372602465</v>
+        <v>5.284757171067177</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.777307679854911</v>
+        <v>-5.976796362486859</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-4.496303077226082</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.21355792409434</v>
+        <v>-15.54462680210121</v>
       </c>
       <c r="F52" t="n">
-        <v>5.862799119963132</v>
+        <v>5.316829056114139</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.051761858342916</v>
+        <v>-6.31209423143362</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-4.629155164041454</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.82814284575483</v>
+        <v>-15.16988442575218</v>
       </c>
       <c r="F53" t="n">
-        <v>6.017795304664936</v>
+        <v>5.465445086854619</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.436644034933929</v>
+        <v>-6.681737373620458</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.78417219851528</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.29088499214268</v>
+        <v>-14.5841178460065</v>
       </c>
       <c r="F54" t="n">
-        <v>6.030560501594452</v>
+        <v>5.450240275498514</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.570734826272805</v>
+        <v>-6.889627723615416</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.971787272302611</v>
       </c>
       <c r="E55" t="n">
-        <v>-13.93386037667935</v>
+        <v>-14.17413550816075</v>
       </c>
       <c r="F55" t="n">
-        <v>5.984070935296957</v>
+        <v>5.340130062841856</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.999075384903824</v>
+        <v>-7.300030516051724</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.19085307721284</v>
       </c>
       <c r="E56" t="n">
-        <v>-13.67275807594489</v>
+        <v>-13.81910560749912</v>
       </c>
       <c r="F56" t="n">
-        <v>5.688457135088945</v>
+        <v>5.102783446473736</v>
       </c>
       <c r="G56" t="n">
-        <v>-8.336231076460013</v>
+        <v>-7.558766537462597</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-5.441729670237163</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.28624786006719</v>
+        <v>-13.37934921783385</v>
       </c>
       <c r="F57" t="n">
-        <v>5.707646487041586</v>
+        <v>5.130313444141334</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.754470946903986</v>
+        <v>-8.019741216930274</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-5.726873141862281</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.02722827625804</v>
+        <v>-13.04365045032401</v>
       </c>
       <c r="F58" t="n">
-        <v>5.597937172948015</v>
+        <v>5.029027888879456</v>
       </c>
       <c r="G58" t="n">
-        <v>-9.110972438632556</v>
+        <v>-8.407855027060316</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-6.035853976890948</v>
       </c>
       <c r="E59" t="n">
-        <v>-12.78448419630884</v>
+        <v>-12.75121450457949</v>
       </c>
       <c r="F59" t="n">
-        <v>5.597687833597802</v>
+        <v>5.022970409371349</v>
       </c>
       <c r="G59" t="n">
-        <v>-9.121830922883975</v>
+        <v>-8.413902728554691</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-6.364069513934476</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.25797726879704</v>
+        <v>-12.20362129045068</v>
       </c>
       <c r="F60" t="n">
-        <v>5.662750736982706</v>
+        <v>5.025752254278624</v>
       </c>
       <c r="G60" t="n">
-        <v>-9.362707402210008</v>
+        <v>-8.686973318099358</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-6.706332219919403</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.00879436680412</v>
+        <v>-11.96039319882166</v>
       </c>
       <c r="F61" t="n">
-        <v>5.398392357674881</v>
+        <v>4.845196341676588</v>
       </c>
       <c r="G61" t="n">
-        <v>-9.562027323167262</v>
+        <v>-8.956709604960789</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-7.044951744627626</v>
       </c>
       <c r="E62" t="n">
-        <v>-11.84184456031271</v>
+        <v>-11.73999676926113</v>
       </c>
       <c r="F62" t="n">
-        <v>5.44089738337584</v>
+        <v>4.793636875258103</v>
       </c>
       <c r="G62" t="n">
-        <v>-9.738476470001091</v>
+        <v>-9.061881920681865</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-7.373667982872515</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.76840678816478</v>
+        <v>-11.6703284214076</v>
       </c>
       <c r="F63" t="n">
-        <v>5.415210541297069</v>
+        <v>4.71985687262949</v>
       </c>
       <c r="G63" t="n">
-        <v>-9.784115349103741</v>
+        <v>-9.150500059151565</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-7.683445607401392</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.77376025068405</v>
+        <v>-11.66055040767377</v>
       </c>
       <c r="F64" t="n">
-        <v>5.245249106575637</v>
+        <v>4.635629062326278</v>
       </c>
       <c r="G64" t="n">
-        <v>-10.0051277935295</v>
+        <v>-9.302577506753821</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.955343857665222</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.8285611286553</v>
+        <v>-11.64425045877947</v>
       </c>
       <c r="F65" t="n">
-        <v>5.415430546606079</v>
+        <v>4.739256451877408</v>
       </c>
       <c r="G65" t="n">
-        <v>-10.03752235302968</v>
+        <v>-9.347908378423856</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-8.186131063194411</v>
       </c>
       <c r="E66" t="n">
-        <v>-11.73012097538997</v>
+        <v>-11.53311355468076</v>
       </c>
       <c r="F66" t="n">
-        <v>5.221429865120028</v>
+        <v>4.586411430197046</v>
       </c>
       <c r="G66" t="n">
-        <v>-10.25922903643054</v>
+        <v>-9.523404168918635</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-8.367760690940331</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.96673912973492</v>
+        <v>-11.7571278493228</v>
       </c>
       <c r="F67" t="n">
-        <v>5.155682500773755</v>
+        <v>4.503733435070647</v>
       </c>
       <c r="G67" t="n">
-        <v>-10.42993848920261</v>
+        <v>-9.688119699271867</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-8.485969848559941</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.68162691627704</v>
+        <v>-11.54015372456912</v>
       </c>
       <c r="F68" t="n">
-        <v>5.149199677668226</v>
+        <v>4.478809278063115</v>
       </c>
       <c r="G68" t="n">
-        <v>-10.47867210965201</v>
+        <v>-9.836266385353124</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-8.543891510313642</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.99252864095789</v>
+        <v>-11.7202598485394</v>
       </c>
       <c r="F69" t="n">
-        <v>5.191176690627558</v>
+        <v>4.501127594410582</v>
       </c>
       <c r="G69" t="n">
-        <v>-10.56209812282905</v>
+        <v>-9.913850035324197</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-8.537901370717313</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.95501529126805</v>
+        <v>-11.76625073613647</v>
       </c>
       <c r="F70" t="n">
-        <v>5.275546282129909</v>
+        <v>4.614303214372796</v>
       </c>
       <c r="G70" t="n">
-        <v>-10.53977491747472</v>
+        <v>-9.915121177109594</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-8.463111725533592</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.28913002055302</v>
+        <v>-12.09072434387988</v>
       </c>
       <c r="F71" t="n">
-        <v>5.136766933205662</v>
+        <v>4.428476952368225</v>
       </c>
       <c r="G71" t="n">
-        <v>-10.47543069809925</v>
+        <v>-9.791101739916563</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-8.329090407763964</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.31313015526271</v>
+        <v>-12.19439084548594</v>
       </c>
       <c r="F72" t="n">
-        <v>4.939407504002038</v>
+        <v>4.224996486567225</v>
       </c>
       <c r="G72" t="n">
-        <v>-10.467872293483</v>
+        <v>-9.755372877733148</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-8.137273006816617</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.45840699431309</v>
+        <v>-12.32092812121544</v>
       </c>
       <c r="F73" t="n">
-        <v>5.083134527875605</v>
+        <v>4.32007300310812</v>
       </c>
       <c r="G73" t="n">
-        <v>-10.36529115140139</v>
+        <v>-9.6316956710208</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-7.891220524157119</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.6858533717757</v>
+        <v>-12.55292616407115</v>
       </c>
       <c r="F74" t="n">
-        <v>4.987329549311539</v>
+        <v>4.244264062629737</v>
       </c>
       <c r="G74" t="n">
-        <v>-10.32630132163774</v>
+        <v>-9.598425979291445</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-7.603759637786739</v>
       </c>
       <c r="E75" t="n">
-        <v>-13.22599573943933</v>
+        <v>-13.08248872087478</v>
       </c>
       <c r="F75" t="n">
-        <v>4.996965781846228</v>
+        <v>4.286402412815677</v>
       </c>
       <c r="G75" t="n">
-        <v>-10.36465069150182</v>
+        <v>-9.602078067421031</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-7.278077338932484</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.21347499285316</v>
+        <v>-13.1590603464244</v>
       </c>
       <c r="F76" t="n">
-        <v>4.896340242511385</v>
+        <v>4.213052642791352</v>
       </c>
       <c r="G76" t="n">
-        <v>-10.26390781600217</v>
+        <v>-9.517468914582201</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-6.922456743994954</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.72293395342004</v>
+        <v>-13.63802657116232</v>
       </c>
       <c r="F77" t="n">
-        <v>4.927644553480241</v>
+        <v>4.265096120889662</v>
       </c>
       <c r="G77" t="n">
-        <v>-10.10506887190297</v>
+        <v>-9.345634990230741</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-6.549277644562701</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.99877660985824</v>
+        <v>-13.91794177032067</v>
       </c>
       <c r="F78" t="n">
-        <v>4.960317786371834</v>
+        <v>4.258378625454521</v>
       </c>
       <c r="G78" t="n">
-        <v>-10.12651694502813</v>
+        <v>-9.246124144461554</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-6.161009043581025</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.20282908946267</v>
+        <v>-14.18121479010404</v>
       </c>
       <c r="F79" t="n">
-        <v>5.027737191066591</v>
+        <v>4.352115554113881</v>
       </c>
       <c r="G79" t="n">
-        <v>-9.920635976855475</v>
+        <v>-9.110053305341577</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-5.768247054290942</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.78874233941436</v>
+        <v>-14.85551639520269</v>
       </c>
       <c r="F80" t="n">
-        <v>5.009452305384329</v>
+        <v>4.249563746073473</v>
       </c>
       <c r="G80" t="n">
-        <v>-9.918494591847766</v>
+        <v>-9.104890514090116</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-5.380974213251769</v>
       </c>
       <c r="E81" t="n">
-        <v>-15.43222364522397</v>
+        <v>-15.45842872203064</v>
       </c>
       <c r="F81" t="n">
-        <v>5.128665848827183</v>
+        <v>4.299754290569221</v>
       </c>
       <c r="G81" t="n">
-        <v>-9.656116260321042</v>
+        <v>-8.789055781480542</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.999821882268763</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.26170721728536</v>
+        <v>-16.26502196394113</v>
       </c>
       <c r="F82" t="n">
-        <v>5.078900647928856</v>
+        <v>4.302800141847309</v>
       </c>
       <c r="G82" t="n">
-        <v>-9.604845245307704</v>
+        <v>-8.739769703255172</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.635402160392885</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.88931880680497</v>
+        <v>-17.00753988185384</v>
       </c>
       <c r="F83" t="n">
-        <v>5.208234435586224</v>
+        <v>4.349705273728492</v>
       </c>
       <c r="G83" t="n">
-        <v>-9.681177309520848</v>
+        <v>-8.782939633890031</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-4.294749460104375</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.0286871901189</v>
+        <v>-18.13379105974384</v>
       </c>
       <c r="F84" t="n">
-        <v>5.252602172903478</v>
+        <v>4.378393966023548</v>
       </c>
       <c r="G84" t="n">
-        <v>-9.491087833528328</v>
+        <v>-8.637521013640514</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.976639829070335</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.05468439319593</v>
+        <v>-19.2253351778856</v>
       </c>
       <c r="F85" t="n">
-        <v>5.474357746373006</v>
+        <v>4.582148216209096</v>
       </c>
       <c r="G85" t="n">
-        <v>-9.355163664614357</v>
+        <v>-8.522746688432818</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.691164371652535</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.18090623704473</v>
+        <v>-20.37419801253508</v>
       </c>
       <c r="F86" t="n">
-        <v>5.420930679331359</v>
+        <v>4.570751941202317</v>
       </c>
       <c r="G86" t="n">
-        <v>-9.062884167089582</v>
+        <v>-8.183170938477506</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.442585147633852</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.19954548478706</v>
+        <v>-21.32171198837753</v>
       </c>
       <c r="F87" t="n">
-        <v>5.478718740498294</v>
+        <v>4.643764369752825</v>
       </c>
       <c r="G87" t="n">
-        <v>-8.793666114956043</v>
+        <v>-7.998620707265201</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.227706562862309</v>
       </c>
       <c r="E88" t="n">
-        <v>-22.55581954675853</v>
+        <v>-22.74791840457336</v>
       </c>
       <c r="F88" t="n">
-        <v>5.552185846687425</v>
+        <v>4.715231872133388</v>
       </c>
       <c r="G88" t="n">
-        <v>-8.86365224825593</v>
+        <v>-8.026781386818632</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.055680903932377</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.11445938096535</v>
+        <v>-24.27455479982935</v>
       </c>
       <c r="F89" t="n">
-        <v>5.410062417066207</v>
+        <v>4.530652306879881</v>
       </c>
       <c r="G89" t="n">
-        <v>-8.424746545785508</v>
+        <v>-7.534331281141756</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-2.928794334893477</v>
       </c>
       <c r="E90" t="n">
-        <v>-25.7064031299496</v>
+        <v>-25.83832320223956</v>
       </c>
       <c r="F90" t="n">
-        <v>5.580996764154154</v>
+        <v>4.732172280927248</v>
       </c>
       <c r="G90" t="n">
-        <v>-8.483722635621103</v>
+        <v>-7.603896959851089</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-2.843984360493543</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.59366244972297</v>
+        <v>-27.70888900806586</v>
       </c>
       <c r="F91" t="n">
-        <v>5.535152546763093</v>
+        <v>4.652716141326146</v>
       </c>
       <c r="G91" t="n">
-        <v>-8.211287616969134</v>
+        <v>-7.281554959101652</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-2.809651697893546</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.41767757666594</v>
+        <v>-29.46349734902266</v>
       </c>
       <c r="F92" t="n">
-        <v>5.56358701070107</v>
+        <v>4.689867704507833</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.13820674232249</v>
+        <v>-7.25216224981776</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-2.827368905536984</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.09848391446323</v>
+        <v>-31.17906452564372</v>
       </c>
       <c r="F93" t="n">
-        <v>5.605177792117916</v>
+        <v>4.769969193015368</v>
       </c>
       <c r="G93" t="n">
-        <v>-8.106027299124456</v>
+        <v>-7.236937882434186</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-2.89326716054353</v>
       </c>
       <c r="E94" t="n">
-        <v>-33.31733768048168</v>
+        <v>-33.40500490711576</v>
       </c>
       <c r="F94" t="n">
-        <v>5.523834495866184</v>
+        <v>4.677801635560287</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.793238417792971</v>
+        <v>-6.93282209928461</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.01223609334214</v>
       </c>
       <c r="E95" t="n">
-        <v>-35.43506722846486</v>
+        <v>-35.58076696660923</v>
       </c>
       <c r="F95" t="n">
-        <v>5.431173148717546</v>
+        <v>4.642126552452408</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.497062381795264</v>
+        <v>-6.69319231670964</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-3.18435515374166</v>
       </c>
       <c r="E96" t="n">
-        <v>-37.57712203011437</v>
+        <v>-37.7635007498949</v>
       </c>
       <c r="F96" t="n">
-        <v>5.345449302313059</v>
+        <v>4.604178081151415</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.169762928082775</v>
+        <v>-6.469354026314806</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.397337694823263</v>
       </c>
       <c r="E97" t="n">
-        <v>-40.02424352674907</v>
+        <v>-40.26171481279231</v>
       </c>
       <c r="F97" t="n">
-        <v>5.005487320815261</v>
+        <v>4.249363296791929</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.030450677410034</v>
+        <v>-6.40633961680714</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.65963938011872</v>
       </c>
       <c r="E98" t="n">
-        <v>-42.17092577339812</v>
+        <v>-42.36184393605459</v>
       </c>
       <c r="F98" t="n">
-        <v>5.024701117802237</v>
+        <v>4.300996098313418</v>
       </c>
       <c r="G98" t="n">
-        <v>-6.866532055176109</v>
+        <v>-6.309899067350375</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.949810260381226</v>
       </c>
       <c r="E99" t="n">
-        <v>-44.6889158690722</v>
+        <v>-44.84574298684566</v>
       </c>
       <c r="F99" t="n">
-        <v>4.470991756082918</v>
+        <v>3.827676676506781</v>
       </c>
       <c r="G99" t="n">
-        <v>-6.455317687599893</v>
+        <v>-5.902478569102884</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-4.28002860337929</v>
       </c>
       <c r="E100" t="n">
-        <v>-47.30401753039552</v>
+        <v>-47.43144949438166</v>
       </c>
       <c r="F100" t="n">
-        <v>4.189013396026732</v>
+        <v>3.575384366146502</v>
       </c>
       <c r="G100" t="n">
-        <v>-6.390817020004684</v>
+        <v>-5.916109120247843</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-4.612977198635236</v>
       </c>
       <c r="E101" t="n">
-        <v>-49.39764427452481</v>
+        <v>-49.55761746821713</v>
       </c>
       <c r="F101" t="n">
-        <v>4.09408843869871</v>
+        <v>3.588105562014215</v>
       </c>
       <c r="G101" t="n">
-        <v>-6.399690567468135</v>
+        <v>-5.969785526639702</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-4.998094000768772</v>
       </c>
       <c r="E102" t="n">
-        <v>-51.62924979270389</v>
+        <v>-51.73017600596105</v>
       </c>
       <c r="F102" t="n">
-        <v>3.660814872138974</v>
+        <v>3.22668084037066</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.250864309432377</v>
+        <v>-5.91833361837229</v>
       </c>
     </row>
   </sheetData>
